--- a/data/group_members.xlsx
+++ b/data/group_members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\University\TA\TAU\DS\2023C\PS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinha\PycharmProjects\DS_MBA_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBFC29B-C641-4A04-9C9E-2054BCF8FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C33687-D6A8-48E1-9594-D9AFB24ED3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{11BDC65C-D1A2-4BE7-ABA3-6853C157C482}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="27648" windowHeight="16440" xr2:uid="{11BDC65C-D1A2-4BE7-ABA3-6853C157C482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nm</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Omer Pinhas</t>
+  </si>
+  <si>
+    <t>Rotem Levi</t>
+  </si>
+  <si>
+    <t>Neil Grinfeld</t>
   </si>
 </sst>
 </file>
@@ -123,12 +132,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35EF0BB7-4620-4289-BC76-D4535FFCDF16}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:C5" xr:uid="{35EF0BB7-4620-4289-BC76-D4535FFCDF16}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35EF0BB7-4620-4289-BC76-D4535FFCDF16}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C4" xr:uid="{35EF0BB7-4620-4289-BC76-D4535FFCDF16}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E33189B-7103-4D36-AF9E-67728CB80BBB}" name="nm" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0DFF7888-793F-4095-869B-164C8915D495}" name="student_name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{85F17933-448D-4F54-9AE3-0C3A11AE65E3}" name="id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E33189B-7103-4D36-AF9E-67728CB80BBB}" name="nm" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0DFF7888-793F-4095-869B-164C8915D495}" name="student_name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{85F17933-448D-4F54-9AE3-0C3A11AE65E3}" name="id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -434,17 +443,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,31 +464,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>322575267</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>205707136</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>302931225</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
